--- a/web/simulator/outputs/simplified.xlsx
+++ b/web/simulator/outputs/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/web/simulator/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C100E79-730C-CA48-887F-4EE4A6EB50E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A748F9B-EBC0-AA4A-9332-1BDBA2E04640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8F6023B2-FEEC-FD41-B049-E09727BA7B66}"/>
   </bookViews>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="143">
   <si>
     <t>years</t>
   </si>
@@ -598,6 +598,15 @@
   </si>
   <si>
     <t>System Setup Transport</t>
+  </si>
+  <si>
+    <t>[Constants.Project Type]</t>
+  </si>
+  <si>
+    <t>[Constants.Project Name]</t>
+  </si>
+  <si>
+    <t>[Constants.Project Description]</t>
   </si>
 </sst>
 </file>
@@ -899,7 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,13 +929,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -934,89 +939,59 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1031,10 +1006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1044,31 +1015,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1078,71 +1038,62 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,7 +1510,7 @@
   <dimension ref="A1:AL157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1595,7 +1546,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1604,7 +1555,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="L2" s="23"/>
+      <c r="L2" s="19"/>
       <c r="M2" t="s">
         <v>26</v>
       </c>
@@ -1616,9 +1567,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="I3"/>
-      <c r="L3" s="37"/>
+      <c r="L3" s="29"/>
       <c r="M3" t="s">
         <v>32</v>
       </c>
@@ -1627,606 +1580,576 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="L4" s="10"/>
       <c r="M4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="19" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:17" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="15" t="s">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="15" t="s">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="15" t="s">
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="27" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="27" t="s">
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="12" t="s">
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="12" t="s">
+      <c r="E12"/>
+      <c r="F12" s="19"/>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="D14" s="15" t="s">
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" s="1"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="11"/>
       <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="Q16" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:10" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="15"/>
-      <c r="D17"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="15" t="s">
+    <row r="17" spans="3:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" s="84" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18"/>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="27" t="s">
+      <c r="E18"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="15" t="s">
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="D20" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="E20"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="4"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="D21" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="38"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="21"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="21"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="108" t="s">
+      <c r="E21"/>
+      <c r="F21" s="30"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110" t="s">
+      <c r="G24" s="80"/>
+      <c r="H24" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="111"/>
-    </row>
-    <row r="25" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25"/>
+      <c r="D25" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="112" t="s">
+      <c r="E25"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="114"/>
-      <c r="I25" s="57" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+    <row r="26" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26"/>
+      <c r="D26" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="112" t="s">
+      <c r="E26"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="114"/>
-      <c r="I26" s="57" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
+    <row r="27" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27"/>
+      <c r="D27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="112" t="s">
+      <c r="E27"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="114"/>
-      <c r="I27" s="57" t="s">
+      <c r="H27" s="20"/>
+      <c r="I27" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+    <row r="28" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+      <c r="D28" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="113" t="s">
+      <c r="E28"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="118"/>
-      <c r="I28" s="58" t="s">
+      <c r="H28" s="86"/>
+      <c r="I28" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="21"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="21"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="12"/>
-      <c r="J31" s="84"/>
-    </row>
-    <row r="32" spans="3:10" s="20" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="12"/>
-      <c r="J32" s="84"/>
-    </row>
-    <row r="33" spans="2:16" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="61" t="s">
+    <row r="29" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="3:9" s="17" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:16" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="61" t="s">
+      <c r="G33" s="46"/>
+      <c r="H33" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="84"/>
-    </row>
-    <row r="34" spans="2:16" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
+      <c r="I33" s="49"/>
+    </row>
+    <row r="34" spans="2:16" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+      <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="63" t="s">
+      <c r="E34"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="63" t="s">
+      <c r="H34" s="39"/>
+      <c r="I34" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="J34" s="84"/>
-    </row>
-    <row r="35" spans="2:16" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
+    </row>
+    <row r="35" spans="2:16" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35"/>
+      <c r="D35" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="63" t="s">
+      <c r="E35"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="63" t="s">
+      <c r="H35" s="39"/>
+      <c r="I35" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="J35" s="84"/>
-    </row>
-    <row r="36" spans="2:16" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
+    </row>
+    <row r="36" spans="2:16" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36"/>
+      <c r="D36" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="63" t="s">
+      <c r="E36"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="63" t="s">
+      <c r="H36" s="39"/>
+      <c r="I36" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="84"/>
-    </row>
-    <row r="37" spans="2:16" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="12"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="63" t="s">
+    </row>
+    <row r="37" spans="2:16" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="63" t="s">
+      <c r="H37" s="39"/>
+      <c r="I37" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="84"/>
     </row>
     <row r="38" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="12"/>
-      <c r="D38" s="129" t="s">
+      <c r="D38" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="129"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="63" t="s">
+      <c r="E38" s="97"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="63" t="s">
+      <c r="H38" s="39"/>
+      <c r="I38" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="47"/>
     </row>
     <row r="39" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="12"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="47"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="47"/>
     </row>
     <row r="40" spans="2:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="20"/>
-      <c r="D40" s="128" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="128"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="63" t="s">
+      <c r="E40" s="96"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="65"/>
-      <c r="I40" s="63" t="s">
+      <c r="H40" s="39"/>
+      <c r="I40" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="J40" s="47"/>
-    </row>
-    <row r="41" spans="2:16" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="64"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="2:16" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="12" t="s">
+    </row>
+    <row r="41" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="7"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="63" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="39"/>
+      <c r="I42" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="21"/>
-    </row>
-    <row r="43" spans="2:16" s="12" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="56"/>
-      <c r="G43" s="66" t="s">
+    </row>
+    <row r="43" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="40"/>
+      <c r="G43" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="56"/>
-      <c r="I43" s="66" t="s">
+      <c r="H43" s="40"/>
+      <c r="I43" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="21"/>
-    </row>
-    <row r="44" spans="2:16" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-    </row>
-    <row r="45" spans="2:16" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H45" s="18"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-    </row>
-    <row r="46" spans="2:16" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="14"/>
+      <c r="H44"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="2:16" s="12" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C47" s="11"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="2:16" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
-      <c r="F48" s="86" t="s">
+      <c r="F48" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="115"/>
-      <c r="H48" s="116" t="s">
+      <c r="G48" s="69"/>
+      <c r="H48" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="I48" s="117"/>
-    </row>
-    <row r="49" spans="1:38" s="12" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="85"/>
+    </row>
+    <row r="49" spans="1:38" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="11"/>
-      <c r="D49" s="12" t="s">
+      <c r="D49" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="107" t="s">
+      <c r="F49" s="37"/>
+      <c r="G49" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="118"/>
-      <c r="I49" s="66" t="s">
+      <c r="H49" s="86"/>
+      <c r="I49" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:38" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="11"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:38" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="17"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="9"/>
-      <c r="H51" s="18"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-    </row>
-    <row r="52" spans="1:38" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52"/>
-      <c r="C52"/>
+      <c r="I51"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="P51" s="17"/>
+    </row>
+    <row r="52" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="12" t="s">
+      <c r="I52" s="13"/>
+      <c r="J52" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="L52" t="s">
         <v>34</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="N52" t="s">
         <v>35</v>
       </c>
-      <c r="P52" s="12" t="s">
+      <c r="P52" t="s">
         <v>37</v>
       </c>
-      <c r="Q52"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-    </row>
-    <row r="53" spans="1:38" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="12" t="s">
+    </row>
+    <row r="53" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="20"/>
+      <c r="G53" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="12" t="s">
+      <c r="H53" s="20"/>
+      <c r="I53" t="s">
         <v>29</v>
       </c>
-      <c r="J53" s="38"/>
-      <c r="K53" s="12" t="s">
+      <c r="J53" s="30"/>
+      <c r="K53" t="s">
         <v>29</v>
       </c>
-      <c r="L53" s="24"/>
+      <c r="L53" s="20"/>
       <c r="M53" t="s">
         <v>2</v>
       </c>
-      <c r="N53" s="25"/>
-      <c r="O53" s="12" t="s">
+      <c r="N53" s="21"/>
+      <c r="O53" t="s">
         <v>36</v>
       </c>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="12" t="s">
+      <c r="P53" s="21"/>
+      <c r="Q53" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:38" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
+      <c r="A54" s="22"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
     </row>
     <row r="55" spans="1:38" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
+      <c r="A55" s="22"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
     </row>
     <row r="56" spans="1:38" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="D56" s="22" t="s">
+      <c r="A56" s="22"/>
+      <c r="D56" s="18" t="s">
         <v>106</v>
       </c>
       <c r="E56"/>
@@ -2234,255 +2157,253 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="26"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
     </row>
     <row r="57" spans="1:38" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+      <c r="A57" s="22"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
+      <c r="F57"/>
+      <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-      <c r="O57" s="93"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
+      <c r="P57"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
     </row>
     <row r="58" spans="1:38" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
+      <c r="A58" s="22"/>
       <c r="D58" t="s">
         <v>84</v>
       </c>
       <c r="E58" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="130" t="s">
+      <c r="F58" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="G58" s="131"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="130" t="s">
+      <c r="G58" s="91"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="J58" s="131"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="130" t="s">
+      <c r="J58" s="91"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="131"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="130" t="s">
+      <c r="M58" s="91"/>
+      <c r="N58" s="92"/>
+      <c r="O58" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="P58" s="131"/>
-      <c r="Q58" s="132"/>
-      <c r="R58" s="133" t="s">
+      <c r="P58" s="91"/>
+      <c r="Q58" s="92"/>
+      <c r="R58" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="S58" s="134"/>
-      <c r="T58" s="135"/>
-      <c r="U58" s="130" t="s">
+      <c r="S58" s="99"/>
+      <c r="T58" s="100"/>
+      <c r="U58" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="V58" s="131"/>
-      <c r="W58" s="132"/>
-      <c r="X58" s="130" t="s">
+      <c r="V58" s="91"/>
+      <c r="W58" s="92"/>
+      <c r="X58" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="Y58" s="131"/>
-      <c r="Z58" s="132"/>
-      <c r="AA58" s="130" t="s">
+      <c r="Y58" s="91"/>
+      <c r="Z58" s="92"/>
+      <c r="AA58" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="AB58" s="131"/>
-      <c r="AC58" s="132"/>
-      <c r="AD58" s="130" t="s">
+      <c r="AB58" s="91"/>
+      <c r="AC58" s="92"/>
+      <c r="AD58" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="AE58" s="131"/>
-      <c r="AF58" s="132"/>
-      <c r="AG58" s="130" t="s">
+      <c r="AE58" s="91"/>
+      <c r="AF58" s="92"/>
+      <c r="AG58" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AH58" s="131"/>
-      <c r="AI58" s="132"/>
-      <c r="AJ58" s="130" t="s">
+      <c r="AH58" s="91"/>
+      <c r="AI58" s="92"/>
+      <c r="AJ58" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AK58" s="131"/>
-      <c r="AL58" s="132"/>
+      <c r="AK58" s="91"/>
+      <c r="AL58" s="92"/>
     </row>
     <row r="59" spans="1:38" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
+      <c r="A59" s="22"/>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59" s="74" t="s">
+      <c r="F59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="76" t="s">
+      <c r="G59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H59" s="77"/>
-      <c r="I59" s="74" t="s">
+      <c r="H59" s="57"/>
+      <c r="I59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K59" s="77"/>
-      <c r="L59" s="74" t="s">
+      <c r="K59" s="57"/>
+      <c r="L59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="M59" s="76" t="s">
+      <c r="M59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N59" s="77"/>
-      <c r="O59" s="74" t="s">
+      <c r="N59" s="57"/>
+      <c r="O59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="P59" s="76" t="s">
+      <c r="P59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="88" t="s">
+      <c r="Q59" s="57"/>
+      <c r="R59" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="S59" s="89" t="s">
+      <c r="S59" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T59" s="90"/>
-      <c r="U59" s="74" t="s">
+      <c r="T59" s="65"/>
+      <c r="U59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="V59" s="76" t="s">
+      <c r="V59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W59" s="77"/>
-      <c r="X59" s="74" t="s">
+      <c r="W59" s="57"/>
+      <c r="X59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="Y59" s="76" t="s">
+      <c r="Y59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Z59" s="77"/>
-      <c r="AA59" s="74" t="s">
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="AB59" s="76" t="s">
+      <c r="AB59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AC59" s="77"/>
-      <c r="AD59" s="74" t="s">
+      <c r="AC59" s="57"/>
+      <c r="AD59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="AE59" s="76" t="s">
+      <c r="AE59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AF59" s="77"/>
-      <c r="AG59" s="74" t="s">
+      <c r="AF59" s="57"/>
+      <c r="AG59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="AH59" s="76" t="s">
+      <c r="AH59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AI59" s="77"/>
-      <c r="AJ59" s="74" t="s">
+      <c r="AI59" s="57"/>
+      <c r="AJ59" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="AK59" s="76" t="s">
+      <c r="AK59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AL59" s="78"/>
+      <c r="AL59" s="58"/>
     </row>
     <row r="60" spans="1:38" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="49" t="s">
+      <c r="A60" s="22"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="79"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="49" t="s">
+      <c r="I60" s="59"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="79"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="49" t="s">
+      <c r="L60" s="59"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="O60" s="79"/>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="49" t="s">
+      <c r="O60" s="59"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="R60" s="91"/>
-      <c r="S60" s="92"/>
-      <c r="T60" s="90" t="s">
+      <c r="R60" s="66"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="U60" s="79"/>
-      <c r="V60" s="80"/>
-      <c r="W60" s="49" t="s">
+      <c r="U60" s="59"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="X60" s="79"/>
-      <c r="Y60" s="80"/>
-      <c r="Z60" s="49" t="s">
+      <c r="X60" s="59"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AA60" s="53"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="55" t="s">
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AD60" s="79"/>
-      <c r="AE60" s="80"/>
-      <c r="AF60" s="57" t="s">
+      <c r="AD60" s="59"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AG60" s="79"/>
-      <c r="AH60" s="80"/>
-      <c r="AI60" s="57" t="s">
+      <c r="AG60" s="59"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AJ60" s="81"/>
-      <c r="AK60" s="82"/>
-      <c r="AL60" s="57" t="s">
+      <c r="AJ60" s="60"/>
+      <c r="AK60" s="61"/>
+      <c r="AL60" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:38" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
@@ -2506,608 +2427,462 @@
       <c r="AH61"/>
       <c r="AI61"/>
     </row>
-    <row r="62" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-    </row>
+    <row r="62" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:38" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
+      <c r="A63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
     </row>
     <row r="64" spans="1:38" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
-      <c r="D64" s="22" t="s">
+      <c r="A64" s="25"/>
+      <c r="D64" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-    </row>
-    <row r="65" spans="1:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-    </row>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+    </row>
+    <row r="65" spans="1:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="61" t="s">
+      <c r="F66" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G66" s="68"/>
-      <c r="H66" s="61" t="s">
+      <c r="G66" s="50"/>
+      <c r="H66" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I66" s="69"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
+      <c r="I66" s="51"/>
     </row>
     <row r="67" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
       <c r="D67" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="49" t="s">
+      <c r="F67" s="36"/>
+      <c r="G67" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="50"/>
-      <c r="I67" s="49" t="s">
+      <c r="H67" s="36"/>
+      <c r="I67" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
     </row>
     <row r="68" spans="1:23" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
       <c r="D68" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="49" t="s">
+      <c r="F68" s="36"/>
+      <c r="G68" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="50"/>
-      <c r="I68" s="49" t="s">
+      <c r="H68" s="36"/>
+      <c r="I68" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
     </row>
     <row r="69" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
+      <c r="A69" s="23"/>
       <c r="E69"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="49"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="49"/>
+      <c r="I69" s="35"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
     </row>
     <row r="70" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="D70" s="44" t="s">
+      <c r="D70" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="49"/>
+      <c r="G70" s="35"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="49"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
+      <c r="I70" s="35"/>
     </row>
     <row r="71" spans="1:23" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
+      <c r="A71" s="25"/>
       <c r="D71" t="s">
         <v>46</v>
       </c>
       <c r="E71"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="49" t="s">
+      <c r="F71" s="36"/>
+      <c r="G71" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="50"/>
-      <c r="I71" s="49" t="s">
+      <c r="H71" s="36"/>
+      <c r="I71" s="35" t="s">
         <v>29</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
     </row>
     <row r="72" spans="1:23" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="D72" s="123" t="s">
+      <c r="D72" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="123"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="49" t="s">
+      <c r="E72" s="97"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H72" s="50"/>
-      <c r="I72" s="49" t="s">
+      <c r="H72" s="36"/>
+      <c r="I72" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="V72" s="12"/>
-      <c r="W72" s="12"/>
     </row>
     <row r="73" spans="1:23" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="D73" s="127" t="s">
+      <c r="D73" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="127"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="49" t="s">
+      <c r="E73" s="101"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H73" s="65"/>
-      <c r="I73" s="49" t="s">
+      <c r="H73" s="39"/>
+      <c r="I73" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
     </row>
     <row r="74" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="49"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
+      <c r="I74" s="35"/>
     </row>
     <row r="75" spans="1:23" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
       <c r="D75" t="s">
         <v>48</v>
       </c>
-      <c r="F75" s="65"/>
-      <c r="G75" s="49" t="s">
+      <c r="F75" s="39"/>
+      <c r="G75" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="65"/>
-      <c r="I75" s="49" t="s">
+      <c r="H75" s="39"/>
+      <c r="I75" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
     </row>
     <row r="76" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="23"/>
       <c r="D76" t="s">
         <v>49</v>
       </c>
       <c r="E76"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="49" t="s">
+      <c r="F76" s="39"/>
+      <c r="G76" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="65"/>
-      <c r="I76" s="49" t="s">
+      <c r="H76" s="39"/>
+      <c r="I76" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
+      <c r="J76"/>
+      <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
     </row>
     <row r="77" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="49"/>
+      <c r="G77" s="35"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12"/>
+      <c r="I77" s="35"/>
     </row>
     <row r="78" spans="1:23" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="D78" s="127" t="s">
+      <c r="D78" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="127"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="52" t="s">
+      <c r="E78" s="101"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52" t="s">
+      <c r="H78" s="37"/>
+      <c r="I78" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
     </row>
     <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="V79" s="12"/>
-      <c r="W79" s="12"/>
     </row>
     <row r="80" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="V80" s="12"/>
-      <c r="W80" s="12"/>
     </row>
     <row r="81" spans="1:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="18" t="s">
         <v>75</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="V81" s="12"/>
-      <c r="W81" s="12"/>
     </row>
     <row r="82" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="D82" s="22"/>
-      <c r="F82" s="124" t="s">
+      <c r="D82" s="18"/>
+      <c r="F82" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="124" t="s">
+      <c r="G82" s="94"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="K82" s="125"/>
-      <c r="L82" s="125"/>
-      <c r="M82" s="126"/>
-      <c r="V82" s="12"/>
-      <c r="W82" s="12"/>
+      <c r="K82" s="94"/>
+      <c r="L82" s="94"/>
+      <c r="M82" s="95"/>
     </row>
     <row r="83" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
       <c r="F83" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48" t="s">
+      <c r="H83" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="49"/>
+      <c r="I83" s="35"/>
       <c r="J83" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K83" s="48"/>
-      <c r="L83" s="48" t="s">
+      <c r="L83" t="s">
         <v>66</v>
       </c>
-      <c r="M83" s="49"/>
-      <c r="V83" s="12"/>
-      <c r="W83" s="12"/>
+      <c r="M83" s="35"/>
     </row>
     <row r="84" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
       <c r="D84" t="s">
         <v>60</v>
       </c>
-      <c r="F84" s="70"/>
-      <c r="G84" s="48" t="s">
+      <c r="F84" s="52"/>
+      <c r="G84" t="s">
         <v>0</v>
       </c>
-      <c r="H84" s="59"/>
-      <c r="I84" s="49" t="s">
+      <c r="H84" s="43"/>
+      <c r="I84" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J84" s="70"/>
-      <c r="K84" s="48" t="s">
+      <c r="J84" s="52"/>
+      <c r="K84" t="s">
         <v>0</v>
       </c>
-      <c r="L84" s="59"/>
-      <c r="M84" s="49" t="s">
+      <c r="L84" s="43"/>
+      <c r="M84" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="V84" s="12"/>
-      <c r="W84" s="12"/>
     </row>
     <row r="85" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
       <c r="D85" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="70"/>
-      <c r="G85" s="48" t="s">
+      <c r="F85" s="52"/>
+      <c r="G85" t="s">
         <v>0</v>
       </c>
-      <c r="H85" s="59"/>
-      <c r="I85" s="49" t="s">
+      <c r="H85" s="43"/>
+      <c r="I85" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J85" s="70"/>
-      <c r="K85" s="48" t="s">
+      <c r="J85" s="52"/>
+      <c r="K85" t="s">
         <v>0</v>
       </c>
-      <c r="L85" s="59"/>
-      <c r="M85" s="49" t="s">
+      <c r="L85" s="43"/>
+      <c r="M85" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="V85" s="12"/>
-      <c r="W85" s="12"/>
     </row>
     <row r="86" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
       <c r="D86" t="s">
         <v>62</v>
       </c>
-      <c r="F86" s="70"/>
-      <c r="G86" s="48" t="s">
+      <c r="F86" s="52"/>
+      <c r="G86" t="s">
         <v>0</v>
       </c>
-      <c r="H86" s="59"/>
-      <c r="I86" s="49" t="s">
+      <c r="H86" s="43"/>
+      <c r="I86" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J86" s="70"/>
-      <c r="K86" s="48" t="s">
+      <c r="J86" s="52"/>
+      <c r="K86" t="s">
         <v>0</v>
       </c>
-      <c r="L86" s="59"/>
-      <c r="M86" s="49" t="s">
+      <c r="L86" s="43"/>
+      <c r="M86" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="V86" s="12"/>
-      <c r="W86" s="12"/>
     </row>
     <row r="87" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
       <c r="D87" t="s">
         <v>88</v>
       </c>
-      <c r="F87" s="70"/>
-      <c r="G87" s="48" t="s">
+      <c r="F87" s="52"/>
+      <c r="G87" t="s">
         <v>0</v>
       </c>
-      <c r="H87" s="59"/>
-      <c r="I87" s="49" t="s">
+      <c r="H87" s="43"/>
+      <c r="I87" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J87" s="70"/>
-      <c r="K87" s="48" t="s">
+      <c r="J87" s="52"/>
+      <c r="K87" t="s">
         <v>0</v>
       </c>
-      <c r="L87" s="59"/>
-      <c r="M87" s="49" t="s">
+      <c r="L87" s="43"/>
+      <c r="M87" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="P87" s="28"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="12"/>
-      <c r="W87" s="12"/>
+      <c r="P87" s="23"/>
     </row>
     <row r="88" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
       <c r="D88" t="s">
         <v>63</v>
       </c>
-      <c r="F88" s="70"/>
-      <c r="G88" s="48" t="s">
+      <c r="F88" s="52"/>
+      <c r="G88" t="s">
         <v>0</v>
       </c>
-      <c r="H88" s="59"/>
-      <c r="I88" s="49" t="s">
+      <c r="H88" s="43"/>
+      <c r="I88" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J88" s="70"/>
-      <c r="K88" s="48" t="s">
+      <c r="J88" s="52"/>
+      <c r="K88" t="s">
         <v>0</v>
       </c>
-      <c r="L88" s="59"/>
-      <c r="M88" s="49" t="s">
+      <c r="L88" s="43"/>
+      <c r="M88" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="O88" s="20"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="12"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="22"/>
     </row>
     <row r="89" spans="1:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="13"/>
       <c r="D89" t="s">
         <v>64</v>
       </c>
-      <c r="F89" s="71"/>
-      <c r="G89" s="72" t="s">
+      <c r="F89" s="53"/>
+      <c r="G89" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H89" s="60"/>
-      <c r="I89" s="52" t="s">
+      <c r="H89" s="44"/>
+      <c r="I89" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J89" s="71"/>
-      <c r="K89" s="72" t="s">
+      <c r="J89" s="53"/>
+      <c r="K89" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L89" s="60"/>
-      <c r="M89" s="52" t="s">
+      <c r="L89" s="44"/>
+      <c r="M89" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O89" s="20"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="26"/>
-      <c r="S89" s="26"/>
-      <c r="T89" s="26"/>
-      <c r="U89" s="26"/>
-      <c r="V89" s="12"/>
-      <c r="W89" s="12"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
     </row>
     <row r="90" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="13"/>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="12"/>
-      <c r="W90" s="12"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="22"/>
     </row>
     <row r="91" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="14"/>
+      <c r="C91" s="13"/>
       <c r="H91"/>
       <c r="I91"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="26"/>
-      <c r="S91" s="26"/>
-      <c r="T91" s="26"/>
-      <c r="U91" s="26"/>
-      <c r="V91" s="12"/>
-      <c r="W91" s="12"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
     </row>
     <row r="92" spans="1:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="22" t="s">
+      <c r="C92" s="13"/>
+      <c r="D92" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="12"/>
-      <c r="W92" s="12"/>
+      <c r="P92" s="22"/>
     </row>
     <row r="93" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="14"/>
-      <c r="F93" s="61" t="s">
+      <c r="C93" s="13"/>
+      <c r="F93" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G93" s="68"/>
-      <c r="H93" s="61" t="s">
+      <c r="G93" s="50"/>
+      <c r="H93" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I93" s="68"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="12"/>
-      <c r="W93" s="12"/>
+      <c r="I93" s="50"/>
+      <c r="P93" s="22"/>
     </row>
     <row r="94" spans="1:23" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
       <c r="D94" t="s">
         <v>68</v>
       </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="49" t="s">
+      <c r="F94" s="36"/>
+      <c r="G94" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H94" s="50"/>
-      <c r="I94" s="49" t="s">
+      <c r="H94" s="36"/>
+      <c r="I94" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="O94" s="12"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="12"/>
-      <c r="W94" s="12"/>
+      <c r="P94" s="22"/>
     </row>
     <row r="95" spans="1:23" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
       <c r="D95" t="s">
         <v>70</v>
       </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="49" t="s">
+      <c r="F95" s="36"/>
+      <c r="G95" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="49" t="s">
+      <c r="H95" s="36"/>
+      <c r="I95" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="O95" s="12"/>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="26"/>
-      <c r="T95" s="26"/>
-      <c r="U95" s="26"/>
-      <c r="V95" s="12"/>
-      <c r="W95" s="12"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="22"/>
+      <c r="S95" s="22"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
     </row>
     <row r="96" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
+      <c r="A96" s="23"/>
+      <c r="B96"/>
+      <c r="C96"/>
       <c r="D96" t="s">
         <v>71</v>
       </c>
       <c r="E96"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="49" t="s">
+      <c r="F96" s="36"/>
+      <c r="G96" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H96" s="50"/>
-      <c r="I96" s="49" t="s">
+      <c r="H96" s="36"/>
+      <c r="I96" s="35" t="s">
         <v>67</v>
       </c>
       <c r="J96"/>
@@ -3115,53 +2890,53 @@
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="26"/>
-      <c r="T96" s="26"/>
-      <c r="U96" s="26"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="28"/>
+      <c r="O96"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
+      <c r="R96" s="22"/>
+      <c r="S96" s="22"/>
+      <c r="T96" s="22"/>
+      <c r="U96" s="22"/>
+      <c r="V96" s="23"/>
+      <c r="W96" s="23"/>
     </row>
     <row r="97" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
+      <c r="A97" s="23"/>
+      <c r="B97"/>
+      <c r="C97"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="73"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="73"/>
+      <c r="I97" s="55"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="28"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97" s="23"/>
+      <c r="W97" s="23"/>
     </row>
     <row r="98" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="14"/>
+      <c r="A98" s="23"/>
+      <c r="B98"/>
+      <c r="C98" s="13"/>
       <c r="D98" t="s">
         <v>72</v>
       </c>
       <c r="E98"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="49" t="s">
+      <c r="F98" s="36"/>
+      <c r="G98" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H98" s="50"/>
-      <c r="I98" s="49" t="s">
+      <c r="H98" s="36"/>
+      <c r="I98" s="35" t="s">
         <v>67</v>
       </c>
       <c r="J98"/>
@@ -3169,100 +2944,84 @@
       <c r="L98"/>
       <c r="M98"/>
       <c r="N98"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="26"/>
-      <c r="S98" s="26"/>
-      <c r="T98" s="26"/>
-      <c r="U98" s="26"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="28"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="23"/>
+      <c r="W98" s="23"/>
     </row>
     <row r="99" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="14"/>
+      <c r="C99" s="13"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="49"/>
+      <c r="G99" s="35"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="49"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="26"/>
-      <c r="S99" s="26"/>
-      <c r="T99" s="26"/>
-      <c r="U99" s="26"/>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
+      <c r="I99" s="35"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
     </row>
     <row r="100" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="14"/>
+      <c r="C100" s="13"/>
       <c r="D100" t="s">
         <v>74</v>
       </c>
-      <c r="F100" s="65"/>
-      <c r="G100" s="49" t="s">
+      <c r="F100" s="39"/>
+      <c r="G100" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H100" s="65"/>
-      <c r="I100" s="49" t="s">
+      <c r="H100" s="39"/>
+      <c r="I100" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="O100" s="12"/>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
-      <c r="U100" s="12"/>
-      <c r="V100" s="12"/>
-      <c r="W100" s="12"/>
+      <c r="P100" s="22"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F101" s="7"/>
-      <c r="G101" s="49"/>
+      <c r="G101" s="35"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="49"/>
+      <c r="I101" s="35"/>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F102" s="7"/>
-      <c r="G102" s="49"/>
+      <c r="G102" s="35"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="49"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D103" s="22" t="s">
+      <c r="D103" s="18" t="s">
         <v>76</v>
       </c>
       <c r="F103" s="7"/>
-      <c r="G103" s="49"/>
+      <c r="G103" s="35"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="49"/>
+      <c r="I103" s="35"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F104" s="74" t="s">
+      <c r="F104" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G104" s="49"/>
-      <c r="H104" s="74" t="s">
+      <c r="G104" s="35"/>
+      <c r="H104" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="I104" s="49"/>
+      <c r="I104" s="35"/>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>79</v>
       </c>
-      <c r="F105" s="50"/>
-      <c r="G105" s="49" t="s">
+      <c r="F105" s="36"/>
+      <c r="G105" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H105" s="50"/>
-      <c r="I105" s="49" t="s">
+      <c r="H105" s="36"/>
+      <c r="I105" s="35" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3270,32 +3029,32 @@
       <c r="D106" t="s">
         <v>80</v>
       </c>
-      <c r="F106" s="50"/>
-      <c r="G106" s="49" t="s">
+      <c r="F106" s="36"/>
+      <c r="G106" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H106" s="50"/>
-      <c r="I106" s="49" t="s">
+      <c r="H106" s="36"/>
+      <c r="I106" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F107" s="7"/>
-      <c r="G107" s="49"/>
+      <c r="G107" s="35"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="49"/>
+      <c r="I107" s="35"/>
     </row>
     <row r="108" spans="1:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="123" t="s">
+      <c r="D108" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="E108" s="123"/>
-      <c r="F108" s="75"/>
-      <c r="G108" s="52" t="s">
+      <c r="E108" s="97"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H108" s="75"/>
-      <c r="I108" s="52" t="s">
+      <c r="H108" s="40"/>
+      <c r="I108" s="38" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3443,92 +3202,79 @@
       <c r="H144"/>
       <c r="I144"/>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H145"/>
       <c r="I145"/>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H146"/>
       <c r="I146"/>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H147"/>
       <c r="I147"/>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H148"/>
       <c r="I148"/>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H149"/>
       <c r="I149"/>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H150"/>
       <c r="I150"/>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H151"/>
       <c r="I151"/>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H152"/>
       <c r="I152"/>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H153"/>
       <c r="I153"/>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H154"/>
       <c r="I154"/>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H155"/>
       <c r="I155"/>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H156"/>
       <c r="I156"/>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="31"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
-      <c r="O157" s="12"/>
+    <row r="157" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I157" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="AA58:AC58"/>
     <mergeCell ref="AD58:AF58"/>
     <mergeCell ref="AG58:AI58"/>
     <mergeCell ref="AJ58:AL58"/>
     <mergeCell ref="J82:M82"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D78:E78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3538,7 +3284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4663F5-B067-0C43-AEFE-2DCDFF5EE7E0}">
-  <dimension ref="A2:Y94"/>
+  <dimension ref="C2:X94"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -3552,1194 +3298,626 @@
     <col min="4" max="4" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="35" t="s">
+    <row r="2" spans="3:24" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C4" s="22" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C4" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C6" s="22" t="s">
+    </row>
+    <row r="5" spans="3:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C6" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="68">
         <v>2026</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="69">
         <f>E6+1</f>
         <v>2027</v>
       </c>
-      <c r="G6" s="96">
+      <c r="G6" s="69">
         <f t="shared" ref="G6:X6" si="0">F6+1</f>
         <v>2028</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="69">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I6" s="96">
+      <c r="I6" s="69">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J6" s="96">
+      <c r="J6" s="69">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K6" s="96">
+      <c r="K6" s="69">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L6" s="96">
+      <c r="L6" s="69">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M6" s="96">
+      <c r="M6" s="69">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="N6" s="96">
+      <c r="N6" s="69">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="O6" s="96">
+      <c r="O6" s="69">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="P6" s="96">
+      <c r="P6" s="69">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="Q6" s="96">
+      <c r="Q6" s="69">
         <f>P6+1</f>
         <v>2038</v>
       </c>
-      <c r="R6" s="96">
+      <c r="R6" s="69">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="S6" s="96">
+      <c r="S6" s="69">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="T6" s="96">
+      <c r="T6" s="69">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="U6" s="96">
+      <c r="U6" s="69">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="V6" s="96">
+      <c r="V6" s="69">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="W6" s="96">
+      <c r="W6" s="69">
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
-      <c r="X6" s="68">
+      <c r="X6" s="50">
         <f t="shared" si="0"/>
         <v>2045</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+    <row r="7" spans="3:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="76">
         <v>1</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="54">
         <f>E7+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="54">
         <f t="shared" ref="G7:W7" si="1">F7+1</f>
         <v>3</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="54">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="54">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="54">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="54">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="54">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="54">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="54">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="54">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="54">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="R7" s="72">
+      <c r="R7" s="54">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="S7" s="72">
+      <c r="S7" s="54">
         <f>R7+1</f>
         <v>15</v>
       </c>
-      <c r="T7" s="72">
+      <c r="T7" s="54">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="U7" s="72">
+      <c r="U7" s="54">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="V7" s="72">
+      <c r="V7" s="54">
         <f>U7+1</f>
         <v>18</v>
       </c>
-      <c r="W7" s="72">
+      <c r="W7" s="54">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="X7" s="52">
+      <c r="X7" s="38">
         <f>W7+1</f>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="49"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C9" s="22" t="s">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="X8" s="35"/>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="49"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X9" s="35"/>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E10" s="7"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="49"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X10" s="35"/>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>109</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="49"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X11" s="35"/>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E12" s="7"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="49"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X12" s="35"/>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="49"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X13" s="35"/>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="49"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X14" s="35"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="49"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X15" s="35"/>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="49"/>
+      <c r="X16" s="35"/>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="49"/>
+      <c r="X17" s="35"/>
     </row>
     <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="49"/>
+      <c r="X18" s="35"/>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>138</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="49"/>
+      <c r="X19" s="35"/>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>139</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="49"/>
+      <c r="X20" s="35"/>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E21" s="7"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="49"/>
+      <c r="X21" s="35"/>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="49"/>
+      <c r="X22" s="35"/>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="49"/>
+      <c r="X23" s="35"/>
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E24" s="7"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="49"/>
+      <c r="X24" s="35"/>
     </row>
     <row r="25" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="105"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="77"/>
     </row>
     <row r="26" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C26" s="22"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="105"/>
+      <c r="C26" s="18"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="77"/>
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E27" s="7"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="49"/>
+      <c r="X27" s="35"/>
     </row>
     <row r="28" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="49"/>
+      <c r="X28" s="35"/>
     </row>
     <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E29" s="7"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="49"/>
+      <c r="X29" s="35"/>
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="49"/>
+      <c r="X30" s="35"/>
     </row>
     <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="49"/>
+      <c r="X31" s="35"/>
     </row>
     <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="49"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X32" s="35"/>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E33" s="7"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="49"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C34" s="22" t="s">
+      <c r="X33" s="35"/>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C34" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="104"/>
-      <c r="W34" s="104"/>
-      <c r="X34" s="105"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C35" s="22"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="105"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E34" s="39"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="77"/>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C35" s="18"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="77"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E36" s="7"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="49"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C37" s="22" t="s">
+      <c r="X36" s="35"/>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C37" s="18" t="s">
         <v>95</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="49"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C38" s="22"/>
+      <c r="X37" s="35"/>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C38" s="18"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="49"/>
-    </row>
-    <row r="39" spans="1:25" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="X38" s="35"/>
+    </row>
+    <row r="39" spans="3:24" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="12"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C40" s="21"/>
+      <c r="X39" s="35"/>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="99"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="49"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D41" s="47" t="s">
+      <c r="E40" s="72"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="X40" s="35"/>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="99"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="49"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E42" s="99"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="49"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C43" s="35" t="s">
+      <c r="E41" s="72"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="X41" s="35"/>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="E42" s="72"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="X42" s="35"/>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C43" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="49"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E44" s="99"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="49"/>
-    </row>
-    <row r="45" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="22" t="s">
+      <c r="E43" s="73"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="X43" s="35"/>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="E44" s="72"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="X44" s="35"/>
+    </row>
+    <row r="45" spans="3:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="102"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="52"/>
-    </row>
-    <row r="47" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="22" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="38"/>
+    </row>
+    <row r="47" spans="3:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="106"/>
+      <c r="E48" s="78"/>
     </row>
     <row r="90" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
     </row>
     <row r="91" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
     </row>
     <row r="92" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="34"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4767,7 +3945,7 @@
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="83">
+      <c r="C8" s="62">
         <v>5000000</v>
       </c>
       <c r="D8" t="s">
@@ -4775,7 +3953,7 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="83">
+      <c r="C9" s="62">
         <v>3000000</v>
       </c>
       <c r="D9" t="s">
@@ -4783,7 +3961,7 @@
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="122">
+      <c r="C10" s="89">
         <v>0.02</v>
       </c>
       <c r="D10" t="s">
@@ -4791,7 +3969,7 @@
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="83">
+      <c r="C11" s="62">
         <v>36000</v>
       </c>
       <c r="D11" t="s">
@@ -4799,7 +3977,7 @@
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="121">
+      <c r="C12" s="88">
         <v>0.45</v>
       </c>
       <c r="D12" t="s">
@@ -4807,7 +3985,7 @@
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="121">
+      <c r="C13" s="88">
         <v>0.01</v>
       </c>
       <c r="D13" t="s">
@@ -4815,7 +3993,7 @@
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="83">
+      <c r="C14" s="62">
         <v>50</v>
       </c>
       <c r="D14" t="s">
@@ -4823,7 +4001,7 @@
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="83">
+      <c r="C15" s="62">
         <v>36000</v>
       </c>
       <c r="D15" t="s">
@@ -4831,7 +4009,7 @@
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="83">
+      <c r="C16" s="62">
         <v>20</v>
       </c>
       <c r="D16" t="s">
@@ -4842,7 +4020,7 @@
       <c r="D19" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="87">
         <f>((capexdiscounted/projectyears)+(opexdiscounted/projectyears)+(systemcapacitykwh*costtochargeperkwh*annualcyclesrequired*(1+systemlosses))+(systemcapacitykwh*365*dailyselfdischargerate*costtochargeperkwh))/(annualcyclesrequired*percycleoutputkwh)</f>
         <v>0.2526822222222222</v>
       </c>
